--- a/DATA_SUICIDIO.xlsx
+++ b/DATA_SUICIDIO.xlsx
@@ -80,9 +80,6 @@
     <t>Casados</t>
   </si>
   <si>
-    <t>Tímido</t>
-  </si>
-  <si>
     <t>Divorciados</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>Si</t>
+  </si>
+  <si>
+    <t>Timido</t>
   </si>
 </sst>
 </file>
@@ -485,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,52 +510,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>23</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>24</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>32</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -581,13 +581,13 @@
         <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -596,16 +596,16 @@
         <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -640,19 +640,19 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L3" t="s">
         <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N3" t="s">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P3" t="s">
         <v>2</v>
@@ -702,7 +702,7 @@
         <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P4" t="s">
         <v>2</v>
@@ -716,7 +716,7 @@
         <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
@@ -734,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -752,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -769,13 +769,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
@@ -787,7 +787,7 @@
         <v>5</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K6" t="s">
         <v>2</v>
@@ -796,13 +796,13 @@
         <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" t="s">
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P6" t="s">
         <v>2</v>
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K7" t="s">
         <v>2</v>
@@ -852,10 +852,10 @@
         <v>2</v>
       </c>
       <c r="O7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -875,22 +875,22 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
         <v>2</v>
@@ -916,7 +916,7 @@
         <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -931,19 +931,19 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>2</v>
@@ -955,7 +955,7 @@
         <v>2</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -966,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
         <v>4</v>
@@ -987,7 +987,7 @@
         <v>8</v>
       </c>
       <c r="J10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
         <v>2</v>
@@ -1002,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P10" t="s">
         <v>2</v>
@@ -1016,7 +1016,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -1025,10 +1025,10 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>2</v>
       </c>
       <c r="K11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" t="s">
         <v>2</v>
@@ -1052,7 +1052,7 @@
         <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s">
         <v>2</v>
@@ -1087,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
         <v>2</v>
@@ -1099,13 +1099,13 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1125,7 +1125,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>4</v>
@@ -1143,16 +1143,16 @@
         <v>2</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N13" t="s">
         <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P13" t="s">
         <v>2</v>
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>4</v>
@@ -1187,7 +1187,7 @@
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" t="s">
         <v>2</v>
@@ -1202,7 +1202,7 @@
         <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" t="s">
         <v>2</v>
@@ -1216,7 +1216,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -1231,13 +1231,13 @@
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K15" t="s">
         <v>2</v>
@@ -1249,13 +1249,13 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1266,7 +1266,7 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -1287,25 +1287,25 @@
         <v>8</v>
       </c>
       <c r="J16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K16" t="s">
         <v>2</v>
       </c>
       <c r="L16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -1337,7 +1337,7 @@
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" t="s">
         <v>2</v>
@@ -1352,7 +1352,7 @@
         <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P17" t="s">
         <v>2</v>
@@ -1387,7 +1387,7 @@
         <v>5</v>
       </c>
       <c r="J18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K18" t="s">
         <v>2</v>
@@ -1396,13 +1396,13 @@
         <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
         <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P18" t="s">
         <v>2</v>
@@ -1434,7 +1434,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
         <v>2</v>
@@ -1452,10 +1452,10 @@
         <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -1481,16 +1481,16 @@
         <v>7</v>
       </c>
       <c r="H20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
       </c>
       <c r="J20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L20" t="s">
         <v>2</v>
@@ -1499,13 +1499,13 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O20" t="s">
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1525,19 +1525,19 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K21" t="s">
         <v>2</v>
@@ -1546,13 +1546,13 @@
         <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N21" t="s">
         <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" t="s">
         <v>2</v>
@@ -1566,7 +1566,7 @@
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
@@ -1575,19 +1575,19 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
       </c>
       <c r="J22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
         <v>2</v>
@@ -1596,13 +1596,13 @@
         <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N22" t="s">
         <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s">
         <v>2</v>
@@ -1637,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="J23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
         <v>2</v>
@@ -1652,7 +1652,7 @@
         <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P23" t="s">
         <v>2</v>
@@ -1675,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
@@ -1687,13 +1687,13 @@
         <v>8</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24" t="s">
         <v>2</v>
       </c>
       <c r="L24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
         <v>2</v>
@@ -1702,10 +1702,10 @@
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J25" t="s">
         <v>2</v>
@@ -1752,10 +1752,10 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -1781,28 +1781,28 @@
         <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26" t="s">
         <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P26" t="s">
         <v>2</v>
@@ -1825,25 +1825,25 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
       </c>
       <c r="J27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M27" t="s">
         <v>2</v>
@@ -1852,7 +1852,7 @@
         <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P27" t="s">
         <v>2</v>
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="J28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K28" t="s">
         <v>2</v>
@@ -1902,7 +1902,7 @@
         <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P28" t="s">
         <v>2</v>
@@ -1925,19 +1925,19 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K29" t="s">
         <v>2</v>
@@ -1952,10 +1952,10 @@
         <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -1975,13 +1975,13 @@
         <v>3</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
@@ -2002,10 +2002,10 @@
         <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2019,40 +2019,40 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" t="s">
         <v>11</v>
       </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
       <c r="H31" t="s">
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J31" t="s">
         <v>2</v>
       </c>
       <c r="K31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N31" t="s">
         <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P31" t="s">
         <v>2</v>
@@ -2102,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P32" t="s">
         <v>2</v>
@@ -2137,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="J33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
         <v>2</v>
@@ -2152,7 +2152,7 @@
         <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P33" t="s">
         <v>2</v>
@@ -2166,16 +2166,16 @@
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>4</v>
@@ -2196,13 +2196,13 @@
         <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N34" t="s">
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P34" t="s">
         <v>2</v>
@@ -2216,13 +2216,13 @@
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F35" t="s">
         <v>2</v>
@@ -2231,16 +2231,16 @@
         <v>7</v>
       </c>
       <c r="H35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
       </c>
       <c r="J35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L35" t="s">
         <v>2</v>
@@ -2255,7 +2255,7 @@
         <v>2</v>
       </c>
       <c r="P35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -2293,19 +2293,19 @@
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -2343,16 +2343,16 @@
         <v>2</v>
       </c>
       <c r="L37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N37" t="s">
         <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P37" t="s">
         <v>2</v>
@@ -2384,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K38" t="s">
         <v>2</v>
@@ -2402,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="O38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P38" t="s">
         <v>2</v>
@@ -2422,7 +2422,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>2</v>
@@ -2431,13 +2431,13 @@
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
       </c>
       <c r="J39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K39" t="s">
         <v>2</v>
@@ -2452,10 +2452,10 @@
         <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -2475,7 +2475,7 @@
         <v>3</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
         <v>4</v>
@@ -2496,13 +2496,13 @@
         <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N40" t="s">
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P40" t="s">
         <v>2</v>
@@ -2531,22 +2531,22 @@
         <v>7</v>
       </c>
       <c r="H41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J41" t="s">
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N41" t="s">
         <v>2</v>
@@ -2555,7 +2555,7 @@
         <v>2</v>
       </c>
       <c r="P41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -2572,37 +2572,37 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" t="s">
+        <v>35</v>
+      </c>
+      <c r="I42" t="s">
         <v>12</v>
       </c>
-      <c r="H42" t="s">
-        <v>36</v>
-      </c>
-      <c r="I42" t="s">
-        <v>13</v>
-      </c>
       <c r="J42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
         <v>2</v>
       </c>
       <c r="L42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P42" t="s">
         <v>2</v>
@@ -2637,7 +2637,7 @@
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K43" t="s">
         <v>2</v>
@@ -2646,13 +2646,13 @@
         <v>2</v>
       </c>
       <c r="M43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N43" t="s">
         <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P43" t="s">
         <v>2</v>
@@ -2675,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" t="s">
         <v>2</v>
@@ -2690,22 +2690,22 @@
         <v>2</v>
       </c>
       <c r="K44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M44" t="s">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O44" t="s">
         <v>2</v>
       </c>
       <c r="P44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J45" t="s">
         <v>2</v>
@@ -2752,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="O45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P45" t="s">
         <v>2</v>
@@ -2766,7 +2766,7 @@
         <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
@@ -2784,10 +2784,10 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K46" t="s">
         <v>2</v>
@@ -2796,16 +2796,16 @@
         <v>2</v>
       </c>
       <c r="M46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v>3</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>4</v>
@@ -2852,7 +2852,7 @@
         <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P47" t="s">
         <v>2</v>
@@ -2866,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
         <v>2</v>
@@ -2887,13 +2887,13 @@
         <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M48" t="s">
         <v>2</v>
@@ -2902,7 +2902,7 @@
         <v>2</v>
       </c>
       <c r="O48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P48" t="s">
         <v>2</v>
@@ -2925,13 +2925,13 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G49" t="s">
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I49" t="s">
         <v>8</v>
@@ -2940,22 +2940,22 @@
         <v>2</v>
       </c>
       <c r="K49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -2966,7 +2966,7 @@
         <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
         <v>2</v>
@@ -2975,37 +2975,37 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
         <v>4</v>
       </c>
       <c r="H50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
       </c>
       <c r="J50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O50" t="s">
         <v>2</v>
       </c>
       <c r="P50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -3037,10 +3037,10 @@
         <v>5</v>
       </c>
       <c r="J51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L51" t="s">
         <v>2</v>
@@ -3052,7 +3052,7 @@
         <v>2</v>
       </c>
       <c r="O51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P51" t="s">
         <v>2</v>
@@ -3075,37 +3075,37 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="s">
         <v>4</v>
       </c>
       <c r="H52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O52" t="s">
         <v>2</v>
       </c>
       <c r="P52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -3116,7 +3116,7 @@
         <v>19</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
         <v>2</v>
@@ -3125,7 +3125,7 @@
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
         <v>4</v>
@@ -3152,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P53" t="s">
         <v>2</v>
@@ -3175,22 +3175,22 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H54" t="s">
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L54" t="s">
         <v>2</v>
@@ -3202,7 +3202,7 @@
         <v>2</v>
       </c>
       <c r="O54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P54" t="s">
         <v>2</v>
@@ -3216,7 +3216,7 @@
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
         <v>2</v>
@@ -3225,13 +3225,13 @@
         <v>3</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I55" t="s">
         <v>8</v>
@@ -3240,22 +3240,22 @@
         <v>2</v>
       </c>
       <c r="K55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M55" t="s">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O55" t="s">
         <v>2</v>
       </c>
       <c r="P55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -3281,10 +3281,10 @@
         <v>7</v>
       </c>
       <c r="H56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J56" t="s">
         <v>2</v>
@@ -3296,16 +3296,16 @@
         <v>2</v>
       </c>
       <c r="M56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N56" t="s">
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -3316,7 +3316,7 @@
         <v>19</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
         <v>2</v>
@@ -3325,10 +3325,10 @@
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H57" t="s">
         <v>2</v>
@@ -3337,7 +3337,7 @@
         <v>8</v>
       </c>
       <c r="J57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K57" t="s">
         <v>2</v>
@@ -3352,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="O57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P57" t="s">
         <v>2</v>
@@ -3366,22 +3366,22 @@
         <v>19</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I58" t="s">
         <v>8</v>
@@ -3393,16 +3393,16 @@
         <v>2</v>
       </c>
       <c r="L58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N58" t="s">
         <v>2</v>
       </c>
       <c r="O58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P58" t="s">
         <v>2</v>
@@ -3425,10 +3425,10 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" t="s">
         <v>2</v>
@@ -3443,7 +3443,7 @@
         <v>2</v>
       </c>
       <c r="L59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M59" t="s">
         <v>2</v>
@@ -3452,7 +3452,7 @@
         <v>2</v>
       </c>
       <c r="O59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P59" t="s">
         <v>2</v>
@@ -3472,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="E60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F60" t="s">
         <v>2</v>
@@ -3481,13 +3481,13 @@
         <v>7</v>
       </c>
       <c r="H60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I60" t="s">
         <v>8</v>
       </c>
       <c r="J60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K60" t="s">
         <v>2</v>
@@ -3499,13 +3499,13 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O60" t="s">
         <v>2</v>
       </c>
       <c r="P60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -3516,13 +3516,13 @@
         <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
         <v>2</v>
@@ -3531,31 +3531,31 @@
         <v>7</v>
       </c>
       <c r="H61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I61" t="s">
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M61" t="s">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -3566,28 +3566,28 @@
         <v>19</v>
       </c>
       <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
         <v>9</v>
       </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>2</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" t="s">
-        <v>2</v>
-      </c>
-      <c r="I62" t="s">
-        <v>10</v>
-      </c>
       <c r="J62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K62" t="s">
         <v>2</v>
@@ -3602,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
         <v>4</v>
@@ -3652,10 +3652,10 @@
         <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -3675,7 +3675,7 @@
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
         <v>4</v>
@@ -3687,7 +3687,7 @@
         <v>8</v>
       </c>
       <c r="J64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K64" t="s">
         <v>2</v>
@@ -3702,7 +3702,7 @@
         <v>2</v>
       </c>
       <c r="O64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P64" t="s">
         <v>2</v>
@@ -3716,7 +3716,7 @@
         <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
         <v>2</v>
@@ -3725,19 +3725,19 @@
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>4</v>
       </c>
       <c r="H65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I65" t="s">
         <v>8</v>
       </c>
       <c r="J65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K65" t="s">
         <v>2</v>
@@ -3746,16 +3746,16 @@
         <v>2</v>
       </c>
       <c r="M65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O65" t="s">
         <v>2</v>
       </c>
       <c r="P65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -3766,7 +3766,7 @@
         <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
         <v>2</v>
@@ -3775,7 +3775,7 @@
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
         <v>4</v>
@@ -3787,7 +3787,7 @@
         <v>8</v>
       </c>
       <c r="J66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K66" t="s">
         <v>2</v>
@@ -3802,7 +3802,7 @@
         <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P66" t="s">
         <v>2</v>
@@ -3825,10 +3825,10 @@
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H67" t="s">
         <v>2</v>
@@ -3852,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P67" t="s">
         <v>2</v>
@@ -3866,13 +3866,13 @@
         <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
         <v>2</v>
@@ -3881,7 +3881,7 @@
         <v>7</v>
       </c>
       <c r="H68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
@@ -3890,22 +3890,22 @@
         <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O68" t="s">
         <v>2</v>
       </c>
       <c r="P68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -3916,13 +3916,13 @@
         <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
         <v>2</v>
@@ -3931,7 +3931,7 @@
         <v>7</v>
       </c>
       <c r="H69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
@@ -3940,22 +3940,22 @@
         <v>2</v>
       </c>
       <c r="K69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O69" t="s">
         <v>2</v>
       </c>
       <c r="P69" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -3969,43 +3969,43 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" t="s">
         <v>11</v>
       </c>
-      <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
       <c r="H70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I70" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L70" t="s">
         <v>2</v>
       </c>
       <c r="M70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O70" t="s">
         <v>2</v>
       </c>
       <c r="P70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -4016,7 +4016,7 @@
         <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D71" t="s">
         <v>2</v>
@@ -4037,7 +4037,7 @@
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K71" t="s">
         <v>2</v>
@@ -4052,7 +4052,7 @@
         <v>2</v>
       </c>
       <c r="O71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P71" t="s">
         <v>2</v>
@@ -4069,10 +4069,10 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F72" t="s">
         <v>2</v>
@@ -4081,31 +4081,31 @@
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I72" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J72" t="s">
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N72" t="s">
         <v>2</v>
       </c>
       <c r="O72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P72" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -4125,7 +4125,7 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>4</v>
@@ -4137,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="J73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
@@ -4146,16 +4146,16 @@
         <v>2</v>
       </c>
       <c r="M73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -4166,7 +4166,7 @@
         <v>30</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D74" t="s">
         <v>2</v>
@@ -4175,7 +4175,7 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>4</v>
@@ -4187,7 +4187,7 @@
         <v>8</v>
       </c>
       <c r="J74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K74" t="s">
         <v>2</v>
@@ -4202,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P74" t="s">
         <v>2</v>
@@ -4237,7 +4237,7 @@
         <v>8</v>
       </c>
       <c r="J75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K75" t="s">
         <v>2</v>
@@ -4252,7 +4252,7 @@
         <v>2</v>
       </c>
       <c r="O75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P75" t="s">
         <v>2</v>
@@ -4266,7 +4266,7 @@
         <v>29</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
         <v>2</v>
@@ -4284,16 +4284,16 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K76" t="s">
         <v>2</v>
       </c>
       <c r="L76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M76" t="s">
         <v>2</v>
@@ -4302,7 +4302,7 @@
         <v>2</v>
       </c>
       <c r="O76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P76" t="s">
         <v>2</v>
@@ -4325,7 +4325,7 @@
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
         <v>4</v>
@@ -4337,7 +4337,7 @@
         <v>8</v>
       </c>
       <c r="J77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K77" t="s">
         <v>2</v>
@@ -4352,7 +4352,7 @@
         <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P77" t="s">
         <v>2</v>
@@ -4375,7 +4375,7 @@
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
         <v>4</v>
@@ -4384,10 +4384,10 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K78" t="s">
         <v>2</v>
@@ -4402,7 +4402,7 @@
         <v>2</v>
       </c>
       <c r="O78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P78" t="s">
         <v>2</v>
@@ -4425,22 +4425,22 @@
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I79" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J79" t="s">
         <v>2</v>
       </c>
       <c r="K79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L79" t="s">
         <v>2</v>
@@ -4455,7 +4455,7 @@
         <v>2</v>
       </c>
       <c r="P79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -4490,22 +4490,22 @@
         <v>2</v>
       </c>
       <c r="K80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
@@ -4552,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P81" t="s">
         <v>2</v>
@@ -4566,7 +4566,7 @@
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D82" t="s">
         <v>2</v>
@@ -4581,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I82" t="s">
         <v>8</v>
@@ -4590,13 +4590,13 @@
         <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N82" t="s">
         <v>2</v>
@@ -4605,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="P82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
@@ -4616,7 +4616,7 @@
         <v>39</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
         <v>2</v>
@@ -4625,10 +4625,10 @@
         <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
         <v>2</v>
@@ -4637,7 +4637,7 @@
         <v>8</v>
       </c>
       <c r="J83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K83" t="s">
         <v>2</v>
@@ -4652,10 +4652,10 @@
         <v>2</v>
       </c>
       <c r="O83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P83" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
@@ -4672,19 +4672,19 @@
         <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J84" t="s">
         <v>2</v>
@@ -4693,7 +4693,7 @@
         <v>2</v>
       </c>
       <c r="L84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M84" t="s">
         <v>2</v>
@@ -4702,10 +4702,10 @@
         <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
@@ -4716,7 +4716,7 @@
         <v>30</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
         <v>2</v>
@@ -4731,13 +4731,13 @@
         <v>7</v>
       </c>
       <c r="H85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K85" t="s">
         <v>2</v>
@@ -4752,10 +4752,10 @@
         <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
@@ -4781,13 +4781,13 @@
         <v>7</v>
       </c>
       <c r="H86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I86" t="s">
         <v>8</v>
       </c>
       <c r="J86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K86" t="s">
         <v>2</v>
@@ -4802,10 +4802,10 @@
         <v>2</v>
       </c>
       <c r="O86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
@@ -4816,7 +4816,7 @@
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
         <v>2</v>
@@ -4825,7 +4825,7 @@
         <v>3</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>4</v>
@@ -4840,10 +4840,10 @@
         <v>2</v>
       </c>
       <c r="K87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M87" t="s">
         <v>2</v>
@@ -4855,7 +4855,7 @@
         <v>2</v>
       </c>
       <c r="P87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
@@ -4890,22 +4890,22 @@
         <v>2</v>
       </c>
       <c r="K88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L88" t="s">
         <v>2</v>
       </c>
       <c r="M88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N88" t="s">
         <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
@@ -4925,13 +4925,13 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>4</v>
       </c>
       <c r="H89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I89" t="s">
         <v>8</v>
@@ -4943,19 +4943,19 @@
         <v>2</v>
       </c>
       <c r="L89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O89" t="s">
         <v>2</v>
       </c>
       <c r="P89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
@@ -4969,43 +4969,43 @@
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
@@ -5016,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D91" t="s">
         <v>2</v>
@@ -5025,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G91" t="s">
         <v>4</v>
@@ -5040,19 +5040,19 @@
         <v>2</v>
       </c>
       <c r="K91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N91" t="s">
         <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P91" t="s">
         <v>2</v>
@@ -5090,7 +5090,7 @@
         <v>2</v>
       </c>
       <c r="K92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L92" t="s">
         <v>2</v>
@@ -5102,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="O92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P92" t="s">
         <v>2</v>
@@ -5125,7 +5125,7 @@
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
         <v>4</v>
@@ -5152,7 +5152,7 @@
         <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P93" t="s">
         <v>2</v>
@@ -5175,7 +5175,7 @@
         <v>3</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>4</v>
@@ -5184,10 +5184,10 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K94" t="s">
         <v>2</v>
@@ -5202,7 +5202,7 @@
         <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P94" t="s">
         <v>2</v>
@@ -5225,22 +5225,22 @@
         <v>3</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>4</v>
       </c>
       <c r="H95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I95" t="s">
         <v>8</v>
       </c>
       <c r="J95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L95" t="s">
         <v>2</v>
@@ -5252,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="O95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P95" t="s">
         <v>2</v>
@@ -5269,17 +5269,17 @@
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>35</v>
+      </c>
+      <c r="G96" t="s">
         <v>11</v>
       </c>
-      <c r="F96" t="s">
-        <v>36</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
       <c r="H96" t="s">
         <v>2</v>
       </c>
@@ -5287,13 +5287,13 @@
         <v>8</v>
       </c>
       <c r="J96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K96" t="s">
         <v>2</v>
       </c>
       <c r="L96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M96" t="s">
         <v>2</v>
@@ -5302,7 +5302,7 @@
         <v>2</v>
       </c>
       <c r="O96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P96" t="s">
         <v>2</v>
@@ -5316,7 +5316,7 @@
         <v>20</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D97" t="s">
         <v>2</v>
@@ -5325,13 +5325,13 @@
         <v>3</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>4</v>
       </c>
       <c r="H97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I97" t="s">
         <v>8</v>
@@ -5340,7 +5340,7 @@
         <v>2</v>
       </c>
       <c r="K97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L97" t="s">
         <v>2</v>
@@ -5349,13 +5349,13 @@
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
@@ -5369,13 +5369,13 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
         <v>4</v>
@@ -5387,25 +5387,25 @@
         <v>8</v>
       </c>
       <c r="J98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K98" t="s">
         <v>2</v>
       </c>
       <c r="L98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
@@ -5416,7 +5416,7 @@
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
@@ -5431,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="H99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I99" t="s">
         <v>8</v>
@@ -5440,22 +5440,22 @@
         <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N99" t="s">
         <v>2</v>
       </c>
       <c r="O99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
@@ -5487,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="J100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K100" t="s">
         <v>2</v>
@@ -5499,13 +5499,13 @@
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
         <v>3</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>4</v>
@@ -5543,7 +5543,7 @@
         <v>2</v>
       </c>
       <c r="L101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M101" t="s">
         <v>2</v>
@@ -5552,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="O101" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P101" t="s">
         <v>2</v>
@@ -5566,7 +5566,7 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
@@ -5575,37 +5575,37 @@
         <v>3</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O102" t="s">
         <v>2</v>
       </c>
       <c r="P102" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
@@ -5616,22 +5616,22 @@
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>35</v>
+      </c>
+      <c r="G103" t="s">
         <v>11</v>
       </c>
-      <c r="F103" t="s">
-        <v>36</v>
-      </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
       <c r="H103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I103" t="s">
         <v>5</v>
@@ -5640,10 +5640,10 @@
         <v>2</v>
       </c>
       <c r="K103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M103" t="s">
         <v>2</v>
@@ -5681,31 +5681,31 @@
         <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I104" t="s">
         <v>8</v>
       </c>
       <c r="J104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K104" t="s">
         <v>2</v>
       </c>
       <c r="L104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O104" t="s">
         <v>2</v>
       </c>
       <c r="P104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
@@ -5716,7 +5716,7 @@
         <v>18</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
@@ -5731,7 +5731,7 @@
         <v>7</v>
       </c>
       <c r="H105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I105" t="s">
         <v>5</v>
@@ -5740,7 +5740,7 @@
         <v>2</v>
       </c>
       <c r="K105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L105" t="s">
         <v>2</v>
@@ -5749,13 +5749,13 @@
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
@@ -5793,19 +5793,19 @@
         <v>2</v>
       </c>
       <c r="L106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M106" t="s">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P106" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
@@ -5846,16 +5846,16 @@
         <v>2</v>
       </c>
       <c r="M107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
@@ -5866,7 +5866,7 @@
         <v>25</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D108" t="s">
         <v>2</v>
@@ -5875,13 +5875,13 @@
         <v>3</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I108" t="s">
         <v>5</v>
@@ -5890,7 +5890,7 @@
         <v>2</v>
       </c>
       <c r="K108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L108" t="s">
         <v>2</v>
@@ -5902,10 +5902,10 @@
         <v>2</v>
       </c>
       <c r="O108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
@@ -5934,10 +5934,10 @@
         <v>2</v>
       </c>
       <c r="I109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K109" t="s">
         <v>2</v>
@@ -5952,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="O109" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P109" t="s">
         <v>2</v>
@@ -5966,7 +5966,7 @@
         <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D110" t="s">
         <v>2</v>
@@ -5981,31 +5981,31 @@
         <v>7</v>
       </c>
       <c r="H110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I110" t="s">
         <v>8</v>
       </c>
       <c r="J110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K110" t="s">
         <v>2</v>
       </c>
       <c r="L110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M110" t="s">
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P110" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
@@ -6016,7 +6016,7 @@
         <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
@@ -6031,31 +6031,31 @@
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I111" t="s">
         <v>8</v>
       </c>
       <c r="J111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K111" t="s">
         <v>2</v>
       </c>
       <c r="L111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M111" t="s">
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
@@ -6066,7 +6066,7 @@
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
@@ -6081,31 +6081,31 @@
         <v>7</v>
       </c>
       <c r="H112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I112" t="s">
         <v>8</v>
       </c>
       <c r="J112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K112" t="s">
         <v>2</v>
       </c>
       <c r="L112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M112" t="s">
         <v>2</v>
       </c>
       <c r="N112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P112" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
@@ -6116,16 +6116,16 @@
         <v>22</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>4</v>
@@ -6152,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="O113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P113" t="s">
         <v>2</v>
@@ -6166,7 +6166,7 @@
         <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -6187,25 +6187,25 @@
         <v>8</v>
       </c>
       <c r="J114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O114" t="s">
         <v>2</v>
       </c>
       <c r="P114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
@@ -6222,7 +6222,7 @@
         <v>2</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
         <v>2</v>
@@ -6231,13 +6231,13 @@
         <v>4</v>
       </c>
       <c r="H115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I115" t="s">
         <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K115" t="s">
         <v>2</v>
@@ -6252,10 +6252,10 @@
         <v>2</v>
       </c>
       <c r="O115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P115" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
@@ -6281,10 +6281,10 @@
         <v>7</v>
       </c>
       <c r="H116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J116" t="s">
         <v>2</v>
@@ -6296,7 +6296,7 @@
         <v>2</v>
       </c>
       <c r="M116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N116" t="s">
         <v>2</v>
@@ -6305,7 +6305,7 @@
         <v>2</v>
       </c>
       <c r="P116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
@@ -6337,7 +6337,7 @@
         <v>8</v>
       </c>
       <c r="J117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K117" t="s">
         <v>2</v>
@@ -6346,13 +6346,13 @@
         <v>2</v>
       </c>
       <c r="M117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N117" t="s">
         <v>2</v>
       </c>
       <c r="O117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P117" t="s">
         <v>2</v>
@@ -6366,28 +6366,28 @@
         <v>29</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D118" t="s">
         <v>2</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G118" t="s">
         <v>4</v>
       </c>
       <c r="H118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I118" t="s">
         <v>5</v>
       </c>
       <c r="J118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K118" t="s">
         <v>2</v>
@@ -6396,13 +6396,13 @@
         <v>2</v>
       </c>
       <c r="M118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N118" t="s">
         <v>2</v>
       </c>
       <c r="O118" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P118" t="s">
         <v>2</v>
@@ -6419,22 +6419,22 @@
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J119" t="s">
         <v>2</v>
@@ -6443,10 +6443,10 @@
         <v>2</v>
       </c>
       <c r="L119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N119" t="s">
         <v>2</v>
@@ -6455,7 +6455,7 @@
         <v>2</v>
       </c>
       <c r="P119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
@@ -6481,16 +6481,16 @@
         <v>7</v>
       </c>
       <c r="H120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L120" t="s">
         <v>2</v>
@@ -6499,13 +6499,13 @@
         <v>2</v>
       </c>
       <c r="N120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
@@ -6540,10 +6540,10 @@
         <v>2</v>
       </c>
       <c r="K121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M121" t="s">
         <v>2</v>
@@ -6555,7 +6555,7 @@
         <v>2</v>
       </c>
       <c r="P121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
@@ -6566,7 +6566,7 @@
         <v>28</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D122" t="s">
         <v>2</v>
@@ -6575,25 +6575,25 @@
         <v>3</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>4</v>
       </c>
       <c r="H122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J122" t="s">
         <v>2</v>
       </c>
       <c r="K122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M122" t="s">
         <v>2</v>
@@ -6602,10 +6602,10 @@
         <v>2</v>
       </c>
       <c r="O122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
@@ -6625,7 +6625,7 @@
         <v>3</v>
       </c>
       <c r="F123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
         <v>4</v>
@@ -6634,10 +6634,10 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K123" t="s">
         <v>2</v>
@@ -6652,7 +6652,7 @@
         <v>2</v>
       </c>
       <c r="O123" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P123" t="s">
         <v>2</v>
@@ -6669,16 +6669,16 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E124" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s">
+        <v>35</v>
+      </c>
+      <c r="G124" t="s">
         <v>11</v>
-      </c>
-      <c r="F124" t="s">
-        <v>36</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
       </c>
       <c r="H124" t="s">
         <v>2</v>
@@ -6690,19 +6690,19 @@
         <v>2</v>
       </c>
       <c r="K124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N124" t="s">
         <v>2</v>
       </c>
       <c r="O124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P124" t="s">
         <v>2</v>
@@ -6716,7 +6716,7 @@
         <v>23</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D125" t="s">
         <v>2</v>
@@ -6743,16 +6743,16 @@
         <v>2</v>
       </c>
       <c r="L125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N125" t="s">
         <v>2</v>
       </c>
       <c r="O125" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P125" t="s">
         <v>2</v>
@@ -6766,7 +6766,7 @@
         <v>18</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D126" t="s">
         <v>2</v>
@@ -6784,10 +6784,10 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K126" t="s">
         <v>2</v>
@@ -6799,13 +6799,13 @@
         <v>2</v>
       </c>
       <c r="N126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
@@ -6819,34 +6819,34 @@
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" t="s">
         <v>11</v>
       </c>
-      <c r="F127" t="s">
-        <v>36</v>
-      </c>
-      <c r="G127" t="s">
+      <c r="H127" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" t="s">
         <v>12</v>
       </c>
-      <c r="H127" t="s">
-        <v>36</v>
-      </c>
-      <c r="I127" t="s">
-        <v>13</v>
-      </c>
       <c r="J127" t="s">
         <v>2</v>
       </c>
       <c r="K127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L127" t="s">
         <v>2</v>
       </c>
       <c r="M127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N127" t="s">
         <v>2</v>
@@ -6866,7 +6866,7 @@
         <v>21</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D128" t="s">
         <v>2</v>
@@ -6875,37 +6875,37 @@
         <v>3</v>
       </c>
       <c r="F128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G128" t="s">
         <v>4</v>
       </c>
       <c r="H128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I128" t="s">
         <v>8</v>
       </c>
       <c r="J128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K128" t="s">
         <v>2</v>
       </c>
       <c r="L128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M128" t="s">
         <v>2</v>
       </c>
       <c r="N128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P128" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
@@ -6919,13 +6919,13 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
         <v>4</v>
@@ -6940,10 +6940,10 @@
         <v>2</v>
       </c>
       <c r="K129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M129" t="s">
         <v>2</v>
@@ -6952,7 +6952,7 @@
         <v>2</v>
       </c>
       <c r="O129" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P129" t="s">
         <v>2</v>
@@ -6975,19 +6975,19 @@
         <v>3</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>4</v>
       </c>
       <c r="H130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I130" t="s">
         <v>8</v>
       </c>
       <c r="J130" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K130" t="s">
         <v>2</v>
@@ -7016,7 +7016,7 @@
         <v>20</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D131" t="s">
         <v>2</v>
@@ -7043,19 +7043,19 @@
         <v>2</v>
       </c>
       <c r="L131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N131" t="s">
         <v>2</v>
       </c>
       <c r="O131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
@@ -7066,7 +7066,7 @@
         <v>20</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D132" t="s">
         <v>2</v>
@@ -7075,7 +7075,7 @@
         <v>3</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
         <v>4</v>
@@ -7102,7 +7102,7 @@
         <v>2</v>
       </c>
       <c r="O132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P132" t="s">
         <v>2</v>
@@ -7125,7 +7125,7 @@
         <v>3</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
         <v>4</v>
@@ -7134,10 +7134,10 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K133" t="s">
         <v>2</v>
@@ -7152,7 +7152,7 @@
         <v>2</v>
       </c>
       <c r="O133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P133" t="s">
         <v>2</v>
@@ -7190,13 +7190,13 @@
         <v>2</v>
       </c>
       <c r="K134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N134" t="s">
         <v>2</v>
@@ -7205,7 +7205,7 @@
         <v>2</v>
       </c>
       <c r="P134" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
@@ -7216,7 +7216,7 @@
         <v>29</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D135" t="s">
         <v>2</v>
@@ -7225,13 +7225,13 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
         <v>4</v>
       </c>
       <c r="H135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I135" t="s">
         <v>8</v>
@@ -7240,13 +7240,13 @@
         <v>2</v>
       </c>
       <c r="K135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L135" t="s">
         <v>2</v>
       </c>
       <c r="M135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N135" t="s">
         <v>2</v>
@@ -7255,7 +7255,7 @@
         <v>2</v>
       </c>
       <c r="P135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
@@ -7269,17 +7269,17 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E136" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" t="s">
+        <v>35</v>
+      </c>
+      <c r="G136" t="s">
         <v>11</v>
       </c>
-      <c r="F136" t="s">
-        <v>36</v>
-      </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
       <c r="H136" t="s">
         <v>2</v>
       </c>
@@ -7287,25 +7287,25 @@
         <v>8</v>
       </c>
       <c r="J136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K136" t="s">
         <v>2</v>
       </c>
       <c r="L136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
@@ -7319,17 +7319,17 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E137" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s">
+        <v>35</v>
+      </c>
+      <c r="G137" t="s">
         <v>11</v>
       </c>
-      <c r="F137" t="s">
-        <v>36</v>
-      </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
       <c r="H137" t="s">
         <v>2</v>
       </c>
@@ -7346,16 +7346,16 @@
         <v>2</v>
       </c>
       <c r="M137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N137" t="s">
         <v>2</v>
       </c>
       <c r="O137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P137" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
@@ -7375,7 +7375,7 @@
         <v>3</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>4</v>
@@ -7384,10 +7384,10 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K138" t="s">
         <v>2</v>
@@ -7402,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="O138" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P138" t="s">
         <v>2</v>
@@ -7416,7 +7416,7 @@
         <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D139" t="s">
         <v>2</v>
@@ -7425,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
         <v>4</v>
@@ -7440,7 +7440,7 @@
         <v>2</v>
       </c>
       <c r="K139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L139" t="s">
         <v>2</v>
@@ -7452,7 +7452,7 @@
         <v>2</v>
       </c>
       <c r="O139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P139" t="s">
         <v>2</v>
@@ -7472,40 +7472,40 @@
         <v>2</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
         <v>4</v>
       </c>
       <c r="H140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J140" t="s">
         <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N140" t="s">
         <v>2</v>
       </c>
       <c r="O140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P140" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
@@ -7525,7 +7525,7 @@
         <v>3</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G141" t="s">
         <v>4</v>
@@ -7552,7 +7552,7 @@
         <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P141" t="s">
         <v>2</v>
@@ -7566,7 +7566,7 @@
         <v>18</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -7581,7 +7581,7 @@
         <v>7</v>
       </c>
       <c r="H142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I142" t="s">
         <v>5</v>
@@ -7590,7 +7590,7 @@
         <v>2</v>
       </c>
       <c r="K142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L142" t="s">
         <v>2</v>
@@ -7599,13 +7599,13 @@
         <v>2</v>
       </c>
       <c r="N142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
@@ -7616,43 +7616,43 @@
         <v>32</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G143" t="s">
         <v>4</v>
       </c>
       <c r="H143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I143" t="s">
         <v>5</v>
       </c>
       <c r="J143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K143" t="s">
         <v>2</v>
       </c>
       <c r="L143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N143" t="s">
         <v>2</v>
       </c>
       <c r="O143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P143" t="s">
         <v>2</v>
@@ -7675,7 +7675,7 @@
         <v>3</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G144" t="s">
         <v>4</v>
@@ -7693,19 +7693,19 @@
         <v>2</v>
       </c>
       <c r="L144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N144" t="s">
         <v>2</v>
       </c>
       <c r="O144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
@@ -7737,7 +7737,7 @@
         <v>8</v>
       </c>
       <c r="J145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K145" t="s">
         <v>2</v>
@@ -7752,7 +7752,7 @@
         <v>2</v>
       </c>
       <c r="O145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P145" t="s">
         <v>2</v>
@@ -7766,7 +7766,7 @@
         <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -7775,7 +7775,7 @@
         <v>3</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146" t="s">
         <v>4</v>
@@ -7784,10 +7784,10 @@
         <v>2</v>
       </c>
       <c r="I146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K146" t="s">
         <v>2</v>
@@ -7802,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="O146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P146" t="s">
         <v>2</v>
@@ -7825,10 +7825,10 @@
         <v>3</v>
       </c>
       <c r="F147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H147" t="s">
         <v>2</v>
@@ -7852,7 +7852,7 @@
         <v>2</v>
       </c>
       <c r="O147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P147" t="s">
         <v>2</v>
@@ -7881,7 +7881,7 @@
         <v>7</v>
       </c>
       <c r="H148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I148" t="s">
         <v>8</v>
@@ -7890,22 +7890,22 @@
         <v>2</v>
       </c>
       <c r="K148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L148" t="s">
         <v>2</v>
       </c>
       <c r="M148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N148" t="s">
         <v>2</v>
       </c>
       <c r="O148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
@@ -7931,7 +7931,7 @@
         <v>7</v>
       </c>
       <c r="H149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I149" t="s">
         <v>8</v>
@@ -7940,13 +7940,13 @@
         <v>2</v>
       </c>
       <c r="K149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N149" t="s">
         <v>2</v>
@@ -7966,22 +7966,22 @@
         <v>23</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
         <v>4</v>
       </c>
       <c r="H150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I150" t="s">
         <v>8</v>
@@ -7990,22 +7990,22 @@
         <v>2</v>
       </c>
       <c r="K150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
@@ -8019,13 +8019,13 @@
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>4</v>
@@ -8043,16 +8043,16 @@
         <v>2</v>
       </c>
       <c r="L151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N151" t="s">
         <v>2</v>
       </c>
       <c r="O151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P151" t="s">
         <v>2</v>
@@ -8066,7 +8066,7 @@
         <v>22</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D152" t="s">
         <v>2</v>
@@ -8084,10 +8084,10 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K152" t="s">
         <v>2</v>
@@ -8102,10 +8102,10 @@
         <v>2</v>
       </c>
       <c r="O152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
@@ -8116,7 +8116,7 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D153" t="s">
         <v>2</v>
@@ -8137,10 +8137,10 @@
         <v>8</v>
       </c>
       <c r="J153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L153" t="s">
         <v>2</v>
@@ -8152,10 +8152,10 @@
         <v>2</v>
       </c>
       <c r="O153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P153" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
@@ -8184,25 +8184,25 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K154" t="s">
         <v>2</v>
       </c>
       <c r="L154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P154" t="s">
         <v>2</v>
@@ -8240,7 +8240,7 @@
         <v>2</v>
       </c>
       <c r="K155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L155" t="s">
         <v>2</v>
@@ -8252,7 +8252,7 @@
         <v>2</v>
       </c>
       <c r="O155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P155" t="s">
         <v>2</v>
@@ -8275,7 +8275,7 @@
         <v>3</v>
       </c>
       <c r="F156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>4</v>
@@ -8302,7 +8302,7 @@
         <v>2</v>
       </c>
       <c r="O156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P156" t="s">
         <v>2</v>
@@ -8337,7 +8337,7 @@
         <v>8</v>
       </c>
       <c r="J157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K157" t="s">
         <v>2</v>
@@ -8352,7 +8352,7 @@
         <v>2</v>
       </c>
       <c r="O157" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P157" t="s">
         <v>2</v>
@@ -8366,13 +8366,13 @@
         <v>18</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D158" t="s">
         <v>2</v>
       </c>
       <c r="E158" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F158" t="s">
         <v>2</v>
@@ -8390,22 +8390,22 @@
         <v>2</v>
       </c>
       <c r="K158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L158" t="s">
         <v>2</v>
       </c>
       <c r="M158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
@@ -8425,7 +8425,7 @@
         <v>3</v>
       </c>
       <c r="F159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G159" t="s">
         <v>4</v>
@@ -8437,7 +8437,7 @@
         <v>8</v>
       </c>
       <c r="J159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K159" t="s">
         <v>2</v>
@@ -8452,7 +8452,7 @@
         <v>2</v>
       </c>
       <c r="O159" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P159" t="s">
         <v>2</v>
@@ -8475,13 +8475,13 @@
         <v>3</v>
       </c>
       <c r="F160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G160" t="s">
         <v>4</v>
       </c>
       <c r="H160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I160" t="s">
         <v>8</v>
@@ -8496,16 +8496,16 @@
         <v>2</v>
       </c>
       <c r="M160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N160" t="s">
         <v>2</v>
       </c>
       <c r="O160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
@@ -8525,13 +8525,13 @@
         <v>3</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
         <v>4</v>
       </c>
       <c r="H161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I161" t="s">
         <v>8</v>
@@ -8546,13 +8546,13 @@
         <v>2</v>
       </c>
       <c r="M161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N161" t="s">
         <v>2</v>
       </c>
       <c r="O161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P161" t="s">
         <v>2</v>
@@ -8566,7 +8566,7 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D162" t="s">
         <v>2</v>
@@ -8575,7 +8575,7 @@
         <v>3</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
         <v>4</v>
@@ -8587,25 +8587,25 @@
         <v>8</v>
       </c>
       <c r="J162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K162" t="s">
         <v>2</v>
       </c>
       <c r="L162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
@@ -8616,19 +8616,19 @@
         <v>24</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H163" t="s">
         <v>2</v>
@@ -8640,16 +8640,16 @@
         <v>2</v>
       </c>
       <c r="K163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L163" t="s">
         <v>2</v>
       </c>
       <c r="M163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O163" t="s">
         <v>2</v>
@@ -8702,10 +8702,10 @@
         <v>2</v>
       </c>
       <c r="O164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P164" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
@@ -8731,13 +8731,13 @@
         <v>7</v>
       </c>
       <c r="H165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I165" t="s">
         <v>8</v>
       </c>
       <c r="J165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K165" t="s">
         <v>2</v>
@@ -8749,13 +8749,13 @@
         <v>2</v>
       </c>
       <c r="N165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
@@ -8769,16 +8769,16 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
         <v>2</v>
@@ -8787,7 +8787,7 @@
         <v>8</v>
       </c>
       <c r="J166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K166" t="s">
         <v>2</v>
@@ -8802,7 +8802,7 @@
         <v>2</v>
       </c>
       <c r="O166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P166" t="s">
         <v>2</v>
@@ -8816,7 +8816,7 @@
         <v>51</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D167" t="s">
         <v>2</v>
@@ -8834,16 +8834,16 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K167" t="s">
         <v>2</v>
       </c>
       <c r="L167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M167" t="s">
         <v>2</v>
@@ -8852,7 +8852,7 @@
         <v>2</v>
       </c>
       <c r="O167" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P167" t="s">
         <v>2</v>
@@ -8866,7 +8866,7 @@
         <v>28</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D168" t="s">
         <v>2</v>
@@ -8875,22 +8875,22 @@
         <v>3</v>
       </c>
       <c r="F168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
         <v>4</v>
       </c>
       <c r="H168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I168" t="s">
         <v>5</v>
       </c>
       <c r="J168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L168" t="s">
         <v>2</v>
@@ -8902,7 +8902,7 @@
         <v>2</v>
       </c>
       <c r="O168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P168" t="s">
         <v>2</v>
@@ -8925,7 +8925,7 @@
         <v>3</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>4</v>
@@ -8937,13 +8937,13 @@
         <v>8</v>
       </c>
       <c r="J169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K169" t="s">
         <v>2</v>
       </c>
       <c r="L169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M169" t="s">
         <v>2</v>
@@ -8952,7 +8952,7 @@
         <v>2</v>
       </c>
       <c r="O169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P169" t="s">
         <v>2</v>
@@ -8966,7 +8966,7 @@
         <v>26</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D170" t="s">
         <v>2</v>
@@ -8975,19 +8975,19 @@
         <v>3</v>
       </c>
       <c r="F170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G170" t="s">
+        <v>11</v>
+      </c>
+      <c r="H170" t="s">
+        <v>2</v>
+      </c>
+      <c r="I170" t="s">
         <v>12</v>
       </c>
-      <c r="H170" t="s">
-        <v>2</v>
-      </c>
-      <c r="I170" t="s">
-        <v>13</v>
-      </c>
       <c r="J170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K170" t="s">
         <v>2</v>
@@ -9002,7 +9002,7 @@
         <v>2</v>
       </c>
       <c r="O170" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P170" t="s">
         <v>2</v>
@@ -9022,25 +9022,25 @@
         <v>2</v>
       </c>
       <c r="E171" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>35</v>
+      </c>
+      <c r="G171" t="s">
         <v>11</v>
       </c>
-      <c r="F171" t="s">
-        <v>36</v>
-      </c>
-      <c r="G171" t="s">
+      <c r="H171" t="s">
+        <v>2</v>
+      </c>
+      <c r="I171" t="s">
         <v>12</v>
       </c>
-      <c r="H171" t="s">
-        <v>2</v>
-      </c>
-      <c r="I171" t="s">
-        <v>13</v>
-      </c>
       <c r="J171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L171" t="s">
         <v>2</v>
@@ -9052,7 +9052,7 @@
         <v>2</v>
       </c>
       <c r="O171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P171" t="s">
         <v>2</v>
@@ -9075,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G172" t="s">
         <v>4</v>
@@ -9087,7 +9087,7 @@
         <v>8</v>
       </c>
       <c r="J172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K172" t="s">
         <v>2</v>
@@ -9102,7 +9102,7 @@
         <v>2</v>
       </c>
       <c r="O172" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P172" t="s">
         <v>2</v>
@@ -9116,7 +9116,7 @@
         <v>24</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D173" t="s">
         <v>2</v>
@@ -9125,7 +9125,7 @@
         <v>3</v>
       </c>
       <c r="F173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G173" t="s">
         <v>4</v>
@@ -9155,7 +9155,7 @@
         <v>2</v>
       </c>
       <c r="P173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
@@ -9166,46 +9166,46 @@
         <v>24</v>
       </c>
       <c r="C174" t="s">
+        <v>36</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" t="s">
+        <v>2</v>
+      </c>
+      <c r="G174" t="s">
+        <v>17</v>
+      </c>
+      <c r="H174" t="s">
+        <v>2</v>
+      </c>
+      <c r="I174" t="s">
         <v>9</v>
       </c>
-      <c r="D174" t="s">
-        <v>2</v>
-      </c>
-      <c r="E174" t="s">
-        <v>16</v>
-      </c>
-      <c r="F174" t="s">
-        <v>2</v>
-      </c>
-      <c r="G174" t="s">
-        <v>18</v>
-      </c>
-      <c r="H174" t="s">
-        <v>2</v>
-      </c>
-      <c r="I174" t="s">
-        <v>10</v>
-      </c>
       <c r="J174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P174" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
@@ -9222,40 +9222,40 @@
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F175" t="s">
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P175" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
@@ -9266,46 +9266,46 @@
         <v>47</v>
       </c>
       <c r="C176" t="s">
+        <v>36</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>18</v>
+      </c>
+      <c r="F176" t="s">
+        <v>2</v>
+      </c>
+      <c r="G176" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" t="s">
+        <v>35</v>
+      </c>
+      <c r="I176" t="s">
         <v>9</v>
       </c>
-      <c r="D176" t="s">
-        <v>2</v>
-      </c>
-      <c r="E176" t="s">
-        <v>19</v>
-      </c>
-      <c r="F176" t="s">
-        <v>2</v>
-      </c>
-      <c r="G176" t="s">
-        <v>18</v>
-      </c>
-      <c r="H176" t="s">
-        <v>36</v>
-      </c>
-      <c r="I176" t="s">
-        <v>10</v>
-      </c>
       <c r="J176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
@@ -9325,13 +9325,13 @@
         <v>3</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G177" t="s">
         <v>4</v>
       </c>
       <c r="H177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I177" t="s">
         <v>8</v>
@@ -9340,7 +9340,7 @@
         <v>2</v>
       </c>
       <c r="K177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L177" t="s">
         <v>2</v>
@@ -9352,7 +9352,7 @@
         <v>2</v>
       </c>
       <c r="O177" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P177" t="s">
         <v>2</v>
@@ -9366,7 +9366,7 @@
         <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D178" t="s">
         <v>2</v>
@@ -9381,7 +9381,7 @@
         <v>7</v>
       </c>
       <c r="H178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I178" t="s">
         <v>5</v>
@@ -9390,13 +9390,13 @@
         <v>2</v>
       </c>
       <c r="K178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N178" t="s">
         <v>2</v>
@@ -9405,7 +9405,7 @@
         <v>2</v>
       </c>
       <c r="P178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
@@ -9434,28 +9434,28 @@
         <v>2</v>
       </c>
       <c r="I179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K179" t="s">
         <v>2</v>
       </c>
       <c r="L179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N179" t="s">
         <v>2</v>
       </c>
       <c r="O179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P179" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
@@ -9496,13 +9496,13 @@
         <v>2</v>
       </c>
       <c r="M180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N180" t="s">
         <v>2</v>
       </c>
       <c r="O180" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P180" t="s">
         <v>2</v>
@@ -9519,10 +9519,10 @@
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F181" t="s">
         <v>2</v>
@@ -9537,7 +9537,7 @@
         <v>8</v>
       </c>
       <c r="J181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K181" t="s">
         <v>2</v>
@@ -9552,7 +9552,7 @@
         <v>2</v>
       </c>
       <c r="O181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P181" t="s">
         <v>2</v>
@@ -9566,7 +9566,7 @@
         <v>29</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D182" t="s">
         <v>2</v>
@@ -9581,13 +9581,13 @@
         <v>4</v>
       </c>
       <c r="H182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K182" t="s">
         <v>2</v>
@@ -9599,13 +9599,13 @@
         <v>2</v>
       </c>
       <c r="N182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O182" t="s">
         <v>2</v>
       </c>
       <c r="P182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
@@ -9616,7 +9616,7 @@
         <v>39</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D183" t="s">
         <v>2</v>
@@ -9625,25 +9625,25 @@
         <v>3</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G183" t="s">
         <v>4</v>
       </c>
       <c r="H183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K183" t="s">
         <v>2</v>
       </c>
       <c r="L183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M183" t="s">
         <v>2</v>
@@ -9652,10 +9652,10 @@
         <v>2</v>
       </c>
       <c r="O183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P183" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
@@ -9675,7 +9675,7 @@
         <v>3</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>4</v>
@@ -9687,7 +9687,7 @@
         <v>8</v>
       </c>
       <c r="J184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K184" t="s">
         <v>2</v>
@@ -9702,7 +9702,7 @@
         <v>2</v>
       </c>
       <c r="O184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P184" t="s">
         <v>2</v>
@@ -9725,13 +9725,13 @@
         <v>3</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
         <v>4</v>
       </c>
       <c r="H185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I185" t="s">
         <v>8</v>
@@ -9743,16 +9743,16 @@
         <v>2</v>
       </c>
       <c r="L185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N185" t="s">
         <v>2</v>
       </c>
       <c r="O185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P185" t="s">
         <v>2</v>
@@ -9775,7 +9775,7 @@
         <v>3</v>
       </c>
       <c r="F186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>4</v>
@@ -9784,10 +9784,10 @@
         <v>2</v>
       </c>
       <c r="I186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K186" t="s">
         <v>2</v>
@@ -9802,7 +9802,7 @@
         <v>2</v>
       </c>
       <c r="O186" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P186" t="s">
         <v>2</v>
@@ -9819,17 +9819,17 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>35</v>
+      </c>
+      <c r="G187" t="s">
         <v>11</v>
       </c>
-      <c r="F187" t="s">
-        <v>36</v>
-      </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
       <c r="H187" t="s">
         <v>2</v>
       </c>
@@ -9837,22 +9837,22 @@
         <v>8</v>
       </c>
       <c r="J187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K187" t="s">
         <v>2</v>
       </c>
       <c r="L187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N187" t="s">
         <v>2</v>
       </c>
       <c r="O187" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P187" t="s">
         <v>2</v>
@@ -9884,10 +9884,10 @@
         <v>2</v>
       </c>
       <c r="I188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K188" t="s">
         <v>2</v>
@@ -9899,13 +9899,13 @@
         <v>2</v>
       </c>
       <c r="N188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P188" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
@@ -9916,7 +9916,7 @@
         <v>20</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D189" t="s">
         <v>2</v>
@@ -9931,13 +9931,13 @@
         <v>7</v>
       </c>
       <c r="H189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K189" t="s">
         <v>2</v>
@@ -9952,7 +9952,7 @@
         <v>2</v>
       </c>
       <c r="O189" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P189" t="s">
         <v>2</v>
@@ -9987,22 +9987,22 @@
         <v>8</v>
       </c>
       <c r="J190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K190" t="s">
         <v>2</v>
       </c>
       <c r="L190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N190" t="s">
         <v>2</v>
       </c>
       <c r="O190" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P190" t="s">
         <v>2</v>
@@ -10025,13 +10025,13 @@
         <v>3</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G191" t="s">
         <v>4</v>
       </c>
       <c r="H191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I191" t="s">
         <v>8</v>
@@ -10043,16 +10043,16 @@
         <v>2</v>
       </c>
       <c r="L191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N191" t="s">
         <v>2</v>
       </c>
       <c r="O191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P191" t="s">
         <v>2</v>
@@ -10066,28 +10066,28 @@
         <v>42</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H192" t="s">
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K192" t="s">
         <v>2</v>
@@ -10102,7 +10102,7 @@
         <v>2</v>
       </c>
       <c r="O192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P192" t="s">
         <v>2</v>
@@ -10116,7 +10116,7 @@
         <v>23</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D193" t="s">
         <v>2</v>
@@ -10125,28 +10125,28 @@
         <v>3</v>
       </c>
       <c r="F193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
         <v>4</v>
       </c>
       <c r="H193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I193" t="s">
         <v>8</v>
       </c>
       <c r="J193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L193" t="s">
         <v>2</v>
       </c>
       <c r="M193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N193" t="s">
         <v>2</v>
@@ -10155,7 +10155,7 @@
         <v>2</v>
       </c>
       <c r="P193" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
@@ -10175,7 +10175,7 @@
         <v>3</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>4</v>
@@ -10184,7 +10184,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J194" t="s">
         <v>2</v>
@@ -10202,10 +10202,10 @@
         <v>2</v>
       </c>
       <c r="O194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
@@ -10216,7 +10216,7 @@
         <v>20</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D195" t="s">
         <v>2</v>
@@ -10237,7 +10237,7 @@
         <v>8</v>
       </c>
       <c r="J195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K195" t="s">
         <v>2</v>
@@ -10252,7 +10252,7 @@
         <v>2</v>
       </c>
       <c r="O195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P195" t="s">
         <v>2</v>
@@ -10284,10 +10284,10 @@
         <v>2</v>
       </c>
       <c r="I196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K196" t="s">
         <v>2</v>
@@ -10296,16 +10296,16 @@
         <v>2</v>
       </c>
       <c r="M196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
@@ -10337,7 +10337,7 @@
         <v>8</v>
       </c>
       <c r="J197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K197" t="s">
         <v>2</v>
@@ -10349,13 +10349,13 @@
         <v>2</v>
       </c>
       <c r="N197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
@@ -10366,25 +10366,25 @@
         <v>34</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E198" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F198" t="s">
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J198" t="s">
         <v>2</v>
@@ -10393,13 +10393,13 @@
         <v>2</v>
       </c>
       <c r="L198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N198" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O198" t="s">
         <v>2</v>
@@ -10416,7 +10416,7 @@
         <v>32</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D199" t="s">
         <v>2</v>
@@ -10425,7 +10425,7 @@
         <v>3</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G199" t="s">
         <v>4</v>
@@ -10437,7 +10437,7 @@
         <v>8</v>
       </c>
       <c r="J199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K199" t="s">
         <v>2</v>
@@ -10452,10 +10452,10 @@
         <v>2</v>
       </c>
       <c r="O199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P199" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
@@ -10466,7 +10466,7 @@
         <v>40</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D200" t="s">
         <v>2</v>
@@ -10481,10 +10481,10 @@
         <v>4</v>
       </c>
       <c r="H200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J200" t="s">
         <v>2</v>
@@ -10493,19 +10493,19 @@
         <v>2</v>
       </c>
       <c r="L200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N200" t="s">
         <v>2</v>
       </c>
       <c r="O200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
@@ -10528,10 +10528,10 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I201" t="s">
         <v>5</v>
@@ -10546,16 +10546,16 @@
         <v>2</v>
       </c>
       <c r="M201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N201" t="s">
         <v>2</v>
       </c>
       <c r="O201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P201" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
@@ -10566,7 +10566,7 @@
         <v>27</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D202" t="s">
         <v>2</v>
@@ -10575,7 +10575,7 @@
         <v>3</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>4</v>
@@ -10584,10 +10584,10 @@
         <v>2</v>
       </c>
       <c r="I202" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K202" t="s">
         <v>2</v>
@@ -10602,7 +10602,7 @@
         <v>2</v>
       </c>
       <c r="O202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P202" t="s">
         <v>2</v>
@@ -10625,7 +10625,7 @@
         <v>3</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
         <v>4</v>
@@ -10634,10 +10634,10 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K203" t="s">
         <v>2</v>
@@ -10646,13 +10646,13 @@
         <v>2</v>
       </c>
       <c r="M203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N203" t="s">
         <v>2</v>
       </c>
       <c r="O203" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P203" t="s">
         <v>2</v>
@@ -10666,22 +10666,22 @@
         <v>25</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G204" t="s">
         <v>4</v>
       </c>
       <c r="H204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I204" t="s">
         <v>5</v>
@@ -10690,10 +10690,10 @@
         <v>2</v>
       </c>
       <c r="K204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M204" t="s">
         <v>2</v>
@@ -10705,7 +10705,7 @@
         <v>2</v>
       </c>
       <c r="P204" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
@@ -10716,7 +10716,7 @@
         <v>26</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D205" t="s">
         <v>2</v>
@@ -10737,7 +10737,7 @@
         <v>8</v>
       </c>
       <c r="J205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K205" t="s">
         <v>2</v>
@@ -10752,7 +10752,7 @@
         <v>2</v>
       </c>
       <c r="O205" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P205" t="s">
         <v>2</v>
@@ -10766,7 +10766,7 @@
         <v>20</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D206" t="s">
         <v>2</v>
@@ -10799,13 +10799,13 @@
         <v>2</v>
       </c>
       <c r="N206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P206" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
@@ -10825,25 +10825,25 @@
         <v>3</v>
       </c>
       <c r="F207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H207" t="s">
         <v>2</v>
       </c>
       <c r="I207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K207" t="s">
         <v>2</v>
       </c>
       <c r="L207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M207" t="s">
         <v>2</v>
@@ -10852,7 +10852,7 @@
         <v>2</v>
       </c>
       <c r="O207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P207" t="s">
         <v>2</v>
@@ -10875,7 +10875,7 @@
         <v>3</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>4</v>
@@ -10893,16 +10893,16 @@
         <v>2</v>
       </c>
       <c r="L208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N208" t="s">
         <v>2</v>
       </c>
       <c r="O208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P208" t="s">
         <v>2</v>
@@ -10916,20 +10916,20 @@
         <v>25</v>
       </c>
       <c r="C209" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>35</v>
+      </c>
+      <c r="G209" t="s">
         <v>11</v>
       </c>
-      <c r="F209" t="s">
-        <v>36</v>
-      </c>
-      <c r="G209" t="s">
-        <v>12</v>
-      </c>
       <c r="H209" t="s">
         <v>2</v>
       </c>
@@ -10952,7 +10952,7 @@
         <v>2</v>
       </c>
       <c r="O209" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P209" t="s">
         <v>2</v>
@@ -10966,7 +10966,7 @@
         <v>26</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D210" t="s">
         <v>2</v>
@@ -10981,7 +10981,7 @@
         <v>7</v>
       </c>
       <c r="H210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I210" t="s">
         <v>8</v>
@@ -10993,10 +10993,10 @@
         <v>2</v>
       </c>
       <c r="L210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N210" t="s">
         <v>2</v>
@@ -11005,7 +11005,7 @@
         <v>2</v>
       </c>
       <c r="P210" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
@@ -11016,7 +11016,7 @@
         <v>24</v>
       </c>
       <c r="C211" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D211" t="s">
         <v>2</v>
@@ -11031,16 +11031,16 @@
         <v>7</v>
       </c>
       <c r="H211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I211" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J211" t="s">
         <v>2</v>
       </c>
       <c r="K211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L211" t="s">
         <v>2</v>
@@ -11049,13 +11049,13 @@
         <v>2</v>
       </c>
       <c r="N211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O211" t="s">
         <v>2</v>
       </c>
       <c r="P211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
@@ -11066,13 +11066,13 @@
         <v>16</v>
       </c>
       <c r="C212" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D212" t="s">
         <v>2</v>
       </c>
       <c r="E212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F212" t="s">
         <v>2</v>
@@ -11081,7 +11081,7 @@
         <v>4</v>
       </c>
       <c r="H212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I212" t="s">
         <v>8</v>
@@ -11090,22 +11090,22 @@
         <v>2</v>
       </c>
       <c r="K212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L212" t="s">
         <v>2</v>
       </c>
       <c r="M212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P212" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
@@ -11116,7 +11116,7 @@
         <v>46</v>
       </c>
       <c r="C213" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D213" t="s">
         <v>2</v>
@@ -11125,34 +11125,34 @@
         <v>3</v>
       </c>
       <c r="F213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G213" t="s">
         <v>4</v>
       </c>
       <c r="H213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K213" t="s">
         <v>2</v>
       </c>
       <c r="L213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N213" t="s">
         <v>2</v>
       </c>
       <c r="O213" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P213" t="s">
         <v>2</v>
@@ -11184,7 +11184,7 @@
         <v>2</v>
       </c>
       <c r="I214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J214" t="s">
         <v>2</v>
@@ -11199,7 +11199,7 @@
         <v>2</v>
       </c>
       <c r="N214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O214" t="s">
         <v>2</v>
@@ -11219,10 +11219,10 @@
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F215" t="s">
         <v>2</v>
@@ -11237,22 +11237,22 @@
         <v>8</v>
       </c>
       <c r="J215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K215" t="s">
         <v>2</v>
       </c>
       <c r="L215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N215" t="s">
         <v>2</v>
       </c>
       <c r="O215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P215" t="s">
         <v>2</v>
@@ -11275,7 +11275,7 @@
         <v>3</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G216" t="s">
         <v>4</v>
@@ -11299,13 +11299,13 @@
         <v>2</v>
       </c>
       <c r="N216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P216" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
@@ -11316,31 +11316,31 @@
         <v>35</v>
       </c>
       <c r="C217" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G217" t="s">
         <v>4</v>
       </c>
       <c r="H217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I217" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L217" t="s">
         <v>2</v>
@@ -11349,13 +11349,13 @@
         <v>2</v>
       </c>
       <c r="N217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O217" t="s">
         <v>2</v>
       </c>
       <c r="P217" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
@@ -11375,19 +11375,19 @@
         <v>3</v>
       </c>
       <c r="F218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G218" t="s">
         <v>4</v>
       </c>
       <c r="H218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I218" t="s">
         <v>5</v>
       </c>
       <c r="J218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K218" t="s">
         <v>2</v>
@@ -11396,13 +11396,13 @@
         <v>2</v>
       </c>
       <c r="M218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N218" t="s">
         <v>2</v>
       </c>
       <c r="O218" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P218" t="s">
         <v>2</v>
@@ -11416,7 +11416,7 @@
         <v>23</v>
       </c>
       <c r="C219" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D219" t="s">
         <v>2</v>
@@ -11437,7 +11437,7 @@
         <v>8</v>
       </c>
       <c r="J219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K219" t="s">
         <v>2</v>
@@ -11452,7 +11452,7 @@
         <v>2</v>
       </c>
       <c r="O219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P219" t="s">
         <v>2</v>
@@ -11475,7 +11475,7 @@
         <v>3</v>
       </c>
       <c r="F220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
         <v>4</v>
@@ -11484,7 +11484,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J220" t="s">
         <v>2</v>
@@ -11502,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="O220" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P220" t="s">
         <v>2</v>
@@ -11537,7 +11537,7 @@
         <v>8</v>
       </c>
       <c r="J221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K221" t="s">
         <v>2</v>
@@ -11549,10 +11549,10 @@
         <v>2</v>
       </c>
       <c r="N221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P221" t="s">
         <v>2</v>
@@ -11581,13 +11581,13 @@
         <v>7</v>
       </c>
       <c r="H222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K222" t="s">
         <v>2</v>
@@ -11602,10 +11602,10 @@
         <v>2</v>
       </c>
       <c r="O222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P222" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
@@ -11616,7 +11616,7 @@
         <v>40</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D223" t="s">
         <v>2</v>
@@ -11625,10 +11625,10 @@
         <v>3</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H223" t="s">
         <v>2</v>
@@ -11637,7 +11637,7 @@
         <v>8</v>
       </c>
       <c r="J223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K223" t="s">
         <v>2</v>
@@ -11652,7 +11652,7 @@
         <v>2</v>
       </c>
       <c r="O223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P223" t="s">
         <v>2</v>
@@ -11666,7 +11666,7 @@
         <v>37</v>
       </c>
       <c r="C224" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D224" t="s">
         <v>2</v>
@@ -11675,7 +11675,7 @@
         <v>3</v>
       </c>
       <c r="F224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G224" t="s">
         <v>4</v>
@@ -11687,7 +11687,7 @@
         <v>8</v>
       </c>
       <c r="J224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K224" t="s">
         <v>2</v>
@@ -11702,7 +11702,7 @@
         <v>2</v>
       </c>
       <c r="O224" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P224" t="s">
         <v>2</v>
@@ -11716,7 +11716,7 @@
         <v>24</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D225" t="s">
         <v>2</v>
@@ -11740,7 +11740,7 @@
         <v>2</v>
       </c>
       <c r="K225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L225" t="s">
         <v>2</v>
@@ -11775,10 +11775,10 @@
         <v>3</v>
       </c>
       <c r="F226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H226" t="s">
         <v>2</v>
@@ -11790,7 +11790,7 @@
         <v>2</v>
       </c>
       <c r="K226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L226" t="s">
         <v>2</v>
@@ -11802,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="O226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P226" t="s">
         <v>2</v>
@@ -11816,7 +11816,7 @@
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D227" t="s">
         <v>2</v>
@@ -11825,7 +11825,7 @@
         <v>3</v>
       </c>
       <c r="F227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G227" t="s">
         <v>4</v>
@@ -11843,7 +11843,7 @@
         <v>2</v>
       </c>
       <c r="L227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M227" t="s">
         <v>2</v>
@@ -11852,7 +11852,7 @@
         <v>2</v>
       </c>
       <c r="O227" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P227" t="s">
         <v>2</v>
@@ -11866,25 +11866,25 @@
         <v>30</v>
       </c>
       <c r="C228" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E228" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" t="s">
+        <v>35</v>
+      </c>
+      <c r="G228" t="s">
         <v>11</v>
       </c>
-      <c r="F228" t="s">
-        <v>36</v>
-      </c>
-      <c r="G228" t="s">
-        <v>12</v>
-      </c>
       <c r="H228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J228" t="s">
         <v>2</v>
@@ -11896,7 +11896,7 @@
         <v>2</v>
       </c>
       <c r="M228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N228" t="s">
         <v>2</v>
@@ -11905,7 +11905,7 @@
         <v>2</v>
       </c>
       <c r="P228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
@@ -11934,7 +11934,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J229" t="s">
         <v>2</v>
@@ -11952,10 +11952,10 @@
         <v>2</v>
       </c>
       <c r="O229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P229" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
@@ -11972,19 +11972,19 @@
         <v>2</v>
       </c>
       <c r="E230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I230" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J230" t="s">
         <v>2</v>
@@ -11996,16 +11996,16 @@
         <v>2</v>
       </c>
       <c r="M230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
@@ -12022,40 +12022,40 @@
         <v>2</v>
       </c>
       <c r="E231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G231" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I231" t="s">
         <v>8</v>
       </c>
       <c r="J231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
@@ -12075,16 +12075,16 @@
         <v>3</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G232" t="s">
         <v>4</v>
       </c>
       <c r="H232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J232" t="s">
         <v>2</v>
@@ -12093,19 +12093,19 @@
         <v>2</v>
       </c>
       <c r="L232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M232" t="s">
         <v>2</v>
       </c>
       <c r="N232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P232" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
@@ -12116,13 +12116,13 @@
         <v>25</v>
       </c>
       <c r="C233" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D233" t="s">
         <v>2</v>
       </c>
       <c r="E233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F233" t="s">
         <v>2</v>
@@ -12131,7 +12131,7 @@
         <v>4</v>
       </c>
       <c r="H233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I233" t="s">
         <v>5</v>
@@ -12140,22 +12140,22 @@
         <v>2</v>
       </c>
       <c r="K233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L233" t="s">
         <v>2</v>
       </c>
       <c r="M233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O233" t="s">
         <v>2</v>
       </c>
       <c r="P233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
@@ -12166,22 +12166,22 @@
         <v>24</v>
       </c>
       <c r="C234" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D234" t="s">
         <v>2</v>
       </c>
       <c r="E234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I234" t="s">
         <v>8</v>
@@ -12196,16 +12196,16 @@
         <v>2</v>
       </c>
       <c r="M234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N234" t="s">
         <v>2</v>
       </c>
       <c r="O234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
@@ -12216,7 +12216,7 @@
         <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D235" t="s">
         <v>2</v>
@@ -12225,7 +12225,7 @@
         <v>3</v>
       </c>
       <c r="F235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G235" t="s">
         <v>4</v>
@@ -12240,22 +12240,22 @@
         <v>2</v>
       </c>
       <c r="K235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L235" t="s">
         <v>2</v>
       </c>
       <c r="M235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N235" t="s">
         <v>2</v>
       </c>
       <c r="O235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P235" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
@@ -12275,13 +12275,13 @@
         <v>3</v>
       </c>
       <c r="F236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G236" t="s">
         <v>4</v>
       </c>
       <c r="H236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I236" t="s">
         <v>8</v>
@@ -12302,7 +12302,7 @@
         <v>2</v>
       </c>
       <c r="O236" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P236" t="s">
         <v>2</v>
@@ -12316,7 +12316,7 @@
         <v>27</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D237" t="s">
         <v>2</v>
@@ -12325,7 +12325,7 @@
         <v>3</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G237" t="s">
         <v>4</v>
@@ -12349,10 +12349,10 @@
         <v>2</v>
       </c>
       <c r="N237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O237" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P237" t="s">
         <v>2</v>
@@ -12375,7 +12375,7 @@
         <v>3</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G238" t="s">
         <v>4</v>
@@ -12387,7 +12387,7 @@
         <v>8</v>
       </c>
       <c r="J238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K238" t="s">
         <v>2</v>
@@ -12402,7 +12402,7 @@
         <v>2</v>
       </c>
       <c r="O238" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P238" t="s">
         <v>2</v>
@@ -12416,7 +12416,7 @@
         <v>19</v>
       </c>
       <c r="C239" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D239" t="s">
         <v>2</v>
@@ -12437,7 +12437,7 @@
         <v>8</v>
       </c>
       <c r="J239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K239" t="s">
         <v>2</v>
@@ -12452,7 +12452,7 @@
         <v>2</v>
       </c>
       <c r="O239" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P239" t="s">
         <v>2</v>
@@ -12469,16 +12469,16 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H240" t="s">
         <v>2</v>
@@ -12487,7 +12487,7 @@
         <v>8</v>
       </c>
       <c r="J240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K240" t="s">
         <v>2</v>
@@ -12502,7 +12502,7 @@
         <v>2</v>
       </c>
       <c r="O240" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P240" t="s">
         <v>2</v>
@@ -12543,10 +12543,10 @@
         <v>2</v>
       </c>
       <c r="L241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N241" t="s">
         <v>2</v>
@@ -12555,7 +12555,7 @@
         <v>2</v>
       </c>
       <c r="P241" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
@@ -12575,13 +12575,13 @@
         <v>3</v>
       </c>
       <c r="F242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G242" t="s">
         <v>4</v>
       </c>
       <c r="H242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I242" t="s">
         <v>8</v>
@@ -12593,19 +12593,19 @@
         <v>2</v>
       </c>
       <c r="L242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N242" t="s">
         <v>2</v>
       </c>
       <c r="O242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P242" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
@@ -12616,22 +12616,22 @@
         <v>19</v>
       </c>
       <c r="C243" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D243" t="s">
         <v>2</v>
       </c>
       <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" t="s">
+        <v>35</v>
+      </c>
+      <c r="G243" t="s">
         <v>11</v>
       </c>
-      <c r="F243" t="s">
-        <v>36</v>
-      </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
       <c r="H243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I243" t="s">
         <v>8</v>
@@ -12643,7 +12643,7 @@
         <v>2</v>
       </c>
       <c r="L243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M243" t="s">
         <v>2</v>
@@ -12666,7 +12666,7 @@
         <v>20</v>
       </c>
       <c r="C244" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D244" t="s">
         <v>2</v>
@@ -12687,7 +12687,7 @@
         <v>8</v>
       </c>
       <c r="J244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K244" t="s">
         <v>2</v>
@@ -12702,7 +12702,7 @@
         <v>2</v>
       </c>
       <c r="O244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P244" t="s">
         <v>2</v>
@@ -12716,7 +12716,7 @@
         <v>21</v>
       </c>
       <c r="C245" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D245" t="s">
         <v>2</v>
@@ -12740,13 +12740,13 @@
         <v>2</v>
       </c>
       <c r="K245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N245" t="s">
         <v>2</v>
@@ -12755,7 +12755,7 @@
         <v>2</v>
       </c>
       <c r="P245" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
@@ -12766,22 +12766,22 @@
         <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D246" t="s">
         <v>2</v>
       </c>
       <c r="E246" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G246" t="s">
         <v>4</v>
       </c>
       <c r="H246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I246" t="s">
         <v>8</v>
@@ -12790,7 +12790,7 @@
         <v>2</v>
       </c>
       <c r="K246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L246" t="s">
         <v>2</v>
@@ -12799,13 +12799,13 @@
         <v>2</v>
       </c>
       <c r="N246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O246" t="s">
         <v>2</v>
       </c>
       <c r="P246" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
@@ -12816,7 +12816,7 @@
         <v>26</v>
       </c>
       <c r="C247" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D247" t="s">
         <v>2</v>
@@ -12831,16 +12831,16 @@
         <v>7</v>
       </c>
       <c r="H247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I247" t="s">
         <v>8</v>
       </c>
       <c r="J247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L247" t="s">
         <v>2</v>
@@ -12849,13 +12849,13 @@
         <v>2</v>
       </c>
       <c r="N247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O247" t="s">
         <v>2</v>
       </c>
       <c r="P247" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
@@ -12872,7 +12872,7 @@
         <v>2</v>
       </c>
       <c r="E248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F248" t="s">
         <v>2</v>
@@ -12881,7 +12881,7 @@
         <v>7</v>
       </c>
       <c r="H248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I248" t="s">
         <v>5</v>
@@ -12890,7 +12890,7 @@
         <v>2</v>
       </c>
       <c r="K248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L248" t="s">
         <v>2</v>
@@ -12899,13 +12899,13 @@
         <v>2</v>
       </c>
       <c r="N248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P248" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
@@ -12916,7 +12916,7 @@
         <v>23</v>
       </c>
       <c r="C249" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="D249" t="s">
         <v>2</v>
@@ -12925,13 +12925,13 @@
         <v>3</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G249" t="s">
         <v>4</v>
       </c>
       <c r="H249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I249" t="s">
         <v>8</v>
@@ -12940,22 +12940,22 @@
         <v>2</v>
       </c>
       <c r="K249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L249" t="s">
         <v>2</v>
       </c>
       <c r="M249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O249" t="s">
         <v>2</v>
       </c>
       <c r="P249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
